--- a/Summary Report.xlsx
+++ b/Summary Report.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juggl\OneDrive\Desktop\Bianca_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738985B1-FEAD-42D5-B729-14E395295CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35535" yWindow="2100" windowWidth="16410" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2020" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -92,11 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +87,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,31 +126,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,27 +218,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,24 +252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,343 +427,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="3" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
-        <v>4858.7800000000007</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4858.7800000000007</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="B2">
+        <v>4547.620000000001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <f>SUM(B2:M2)</f>
-        <v>9717.5600000000013</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
-        <v>2090</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2090</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3491</v>
+      </c>
+      <c r="N3">
         <f>SUM(B3:M3)</f>
-        <v>4180</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>5528.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5528.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2875</v>
+      </c>
+      <c r="N4">
         <f>SUM(B4:M4)</f>
-        <v>11057</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
-        <v>727.60230499999989</v>
-      </c>
-      <c r="C5" s="1">
-        <v>727.60230499999989</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="B5">
+        <v>681.0060949999998</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <f>SUM(B5:M5)</f>
-        <v>1455.2046099999998</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
-        <v>1140.870375</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1140.870375</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <f>SUM(B5:M6)</f>
-        <v>3736.9453599999997</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>953.3085</v>
+      </c>
+      <c r="N6">
+        <f>SUM(B6:M6)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:N7" si="0">SUM(B2:B6)</f>
-        <v>14345.752680000001</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>14345.752680000001</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="0"/>
-        <v>30146.709970000004</v>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I2:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J2:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K2:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>SUM(L2:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>SUM(M2:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>SUM(N2:N6)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Summary Report.xlsx
+++ b/Summary Report.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="2" r:id="rId2"/>
+    <sheet name="2020" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>Janvier</t>
   </si>
@@ -516,7 +518,6 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUM(B2:M2)</f>
         <v>0</v>
       </c>
     </row>
@@ -558,10 +559,9 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3491</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <f>SUM(B3:M3)</f>
         <v>0</v>
       </c>
     </row>
@@ -603,10 +603,9 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2875</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <f>SUM(B4:M4)</f>
         <v>0</v>
       </c>
     </row>
@@ -651,7 +650,6 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUM(B5:M5)</f>
         <v>0</v>
       </c>
     </row>
@@ -693,10 +691,9 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>953.3085</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f>SUM(B6:M6)</f>
         <v>0</v>
       </c>
     </row>
@@ -705,6 +702,329 @@
         <v>18</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>4547.620000000001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4547.620000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>SUM(B2:M2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>SUM(B3:M3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>SUM(B4:M4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>681.0060949999998</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>681.0060949999998</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>SUM(B5:M5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>SUM(B6:M6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
         <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
@@ -754,6 +1074,324 @@
       </c>
       <c r="N7">
         <f>SUM(N2:N6)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>4547.620000000001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>681.0060949999998</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
     </row>

--- a/Summary Report.xlsx
+++ b/Summary Report.xlsx
@@ -518,6 +518,7 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <f>SUM(B2:M2)</f>
         <v>0</v>
       </c>
     </row>
@@ -562,6 +563,7 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <f>SUM(B3:M3)</f>
         <v>0</v>
       </c>
     </row>
@@ -606,6 +608,7 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <f>SUM(B4:M4)</f>
         <v>0</v>
       </c>
     </row>
@@ -650,6 +653,7 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <f>SUM(B5:M5)</f>
         <v>0</v>
       </c>
     </row>
@@ -694,6 +698,7 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <f>SUM(B6:M6)</f>
         <v>0</v>
       </c>
     </row>
@@ -702,42 +707,55 @@
         <v>18</v>
       </c>
       <c r="B7">
+        <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
       <c r="C7">
+        <f>SUM(C2:C6)</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>SUM(D2:D6)</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>SUM(E2:E6)</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>SUM(F2:F6)</f>
         <v>0</v>
       </c>
       <c r="G7">
+        <f>SUM(G2:G6)</f>
         <v>0</v>
       </c>
       <c r="H7">
+        <f>SUM(H2:H6)</f>
         <v>0</v>
       </c>
       <c r="I7">
+        <f>SUM(I2:I6)</f>
         <v>0</v>
       </c>
       <c r="J7">
+        <f>SUM(J2:J6)</f>
         <v>0</v>
       </c>
       <c r="K7">
+        <f>SUM(K2:K6)</f>
         <v>0</v>
       </c>
       <c r="L7">
+        <f>SUM(L2:L6)</f>
         <v>0</v>
       </c>
       <c r="M7">
+        <f>SUM(M2:M6)</f>
         <v>0</v>
       </c>
       <c r="N7">
+        <f>SUM(N2:N6)</f>
         <v>0</v>
       </c>
     </row>
@@ -1172,6 +1190,7 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <f>SUM(B2:M2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1189,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3491</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3491</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1216,6 +1235,7 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <f>SUM(B3:M3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1233,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2875</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2875</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1260,6 +1280,7 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <f>SUM(B4:M4)</f>
         <v>0</v>
       </c>
     </row>
@@ -1304,6 +1325,7 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <f>SUM(B5:M5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1321,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>953.3085</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>953.3085</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1348,6 +1370,7 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <f>SUM(B6:M6)</f>
         <v>0</v>
       </c>
     </row>
@@ -1356,42 +1379,55 @@
         <v>18</v>
       </c>
       <c r="B7">
+        <f>SUM(B2:B6)</f>
         <v>0</v>
       </c>
       <c r="C7">
+        <f>SUM(C2:C6)</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>SUM(D2:D6)</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>SUM(E2:E6)</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>SUM(F2:F6)</f>
         <v>0</v>
       </c>
       <c r="G7">
+        <f>SUM(G2:G6)</f>
         <v>0</v>
       </c>
       <c r="H7">
+        <f>SUM(H2:H6)</f>
         <v>0</v>
       </c>
       <c r="I7">
+        <f>SUM(I2:I6)</f>
         <v>0</v>
       </c>
       <c r="J7">
+        <f>SUM(J2:J6)</f>
         <v>0</v>
       </c>
       <c r="K7">
+        <f>SUM(K2:K6)</f>
         <v>0</v>
       </c>
       <c r="L7">
+        <f>SUM(L2:L6)</f>
         <v>0</v>
       </c>
       <c r="M7">
+        <f>SUM(M2:M6)</f>
         <v>0</v>
       </c>
       <c r="N7">
+        <f>SUM(N2:N6)</f>
         <v>0</v>
       </c>
     </row>
